--- a/임안나(외주).xlsx
+++ b/임안나(외주).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:H1"/>
+  <dimension ref="B1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,32 +441,62 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Gubun</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>WORK</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>CODE</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TAT</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Error</t>
         </is>
       </c>
     </row>
